--- a/Code/Results/Cases/Case_3_203/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_203/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.030422560122526</v>
+        <v>1.061583738586743</v>
       </c>
       <c r="D2">
-        <v>1.042385957953591</v>
+        <v>1.060890972402392</v>
       </c>
       <c r="E2">
-        <v>1.040416700324603</v>
+        <v>1.067167889103512</v>
       </c>
       <c r="F2">
-        <v>1.04695556869099</v>
+        <v>1.07781382575214</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055763472653462</v>
+        <v>1.051058098285538</v>
       </c>
       <c r="J2">
-        <v>1.05172991096984</v>
+        <v>1.066558667851675</v>
       </c>
       <c r="K2">
-        <v>1.053284759243612</v>
+        <v>1.063616520042916</v>
       </c>
       <c r="L2">
-        <v>1.051340281277047</v>
+        <v>1.069876477279835</v>
       </c>
       <c r="M2">
-        <v>1.057797316775402</v>
+        <v>1.080494137962325</v>
       </c>
       <c r="N2">
-        <v>1.053223488078524</v>
+        <v>1.068073303496013</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.036459478833752</v>
+        <v>1.06281500893619</v>
       </c>
       <c r="D3">
-        <v>1.047057731171287</v>
+        <v>1.061855099938356</v>
       </c>
       <c r="E3">
-        <v>1.045682098706801</v>
+        <v>1.068291085950372</v>
       </c>
       <c r="F3">
-        <v>1.052793362838436</v>
+        <v>1.079077899173472</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058009487721215</v>
+        <v>1.051450017423072</v>
       </c>
       <c r="J3">
-        <v>1.056003266179681</v>
+        <v>1.067442694377056</v>
       </c>
       <c r="K3">
-        <v>1.057121925509313</v>
+        <v>1.064394784157539</v>
       </c>
       <c r="L3">
-        <v>1.055762020520304</v>
+        <v>1.070814641586134</v>
       </c>
       <c r="M3">
-        <v>1.062792527977427</v>
+        <v>1.081574887146536</v>
       </c>
       <c r="N3">
-        <v>1.057502911942923</v>
+        <v>1.068958585440459</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.040268932158794</v>
+        <v>1.063611401106162</v>
       </c>
       <c r="D4">
-        <v>1.050008100531808</v>
+        <v>1.062478591432483</v>
       </c>
       <c r="E4">
-        <v>1.049010267132662</v>
+        <v>1.069017866904393</v>
       </c>
       <c r="F4">
-        <v>1.056484901032148</v>
+        <v>1.07989610137531</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05941707080453</v>
+        <v>1.051702248441203</v>
       </c>
       <c r="J4">
-        <v>1.058695782563282</v>
+        <v>1.068013854960822</v>
       </c>
       <c r="K4">
-        <v>1.05953823080672</v>
+        <v>1.064897388507492</v>
       </c>
       <c r="L4">
-        <v>1.058551087301347</v>
+        <v>1.071421103734041</v>
       </c>
       <c r="M4">
-        <v>1.065946245080293</v>
+        <v>1.082273901098576</v>
       </c>
       <c r="N4">
-        <v>1.060199252008626</v>
+        <v>1.069530557137768</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.041848296320385</v>
+        <v>1.063946129449491</v>
       </c>
       <c r="D5">
-        <v>1.051231794821196</v>
+        <v>1.06274062125233</v>
       </c>
       <c r="E5">
-        <v>1.050391374657111</v>
+        <v>1.069323406403561</v>
       </c>
       <c r="F5">
-        <v>1.058017188142966</v>
+        <v>1.080240138055887</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059998268234046</v>
+        <v>1.051807959756388</v>
       </c>
       <c r="J5">
-        <v>1.059811051253297</v>
+        <v>1.068253765417447</v>
       </c>
       <c r="K5">
-        <v>1.060538746400497</v>
+        <v>1.065108448735447</v>
       </c>
       <c r="L5">
-        <v>1.059707080107609</v>
+        <v>1.071675919784111</v>
       </c>
       <c r="M5">
-        <v>1.067254083712633</v>
+        <v>1.082567695526514</v>
       </c>
       <c r="N5">
-        <v>1.061316104508103</v>
+        <v>1.06977080829476</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.042112210130351</v>
+        <v>1.064002327480994</v>
       </c>
       <c r="D6">
-        <v>1.051436303137874</v>
+        <v>1.062784612198238</v>
       </c>
       <c r="E6">
-        <v>1.050622233209529</v>
+        <v>1.069374707916324</v>
       </c>
       <c r="F6">
-        <v>1.058273340397274</v>
+        <v>1.080297907158955</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060095246287421</v>
+        <v>1.051825690017317</v>
       </c>
       <c r="J6">
-        <v>1.05999735266103</v>
+        <v>1.068294035429178</v>
       </c>
       <c r="K6">
-        <v>1.060705858188747</v>
+        <v>1.065143872948008</v>
       </c>
       <c r="L6">
-        <v>1.059900227323226</v>
+        <v>1.071718696310996</v>
       </c>
       <c r="M6">
-        <v>1.06747264366448</v>
+        <v>1.082617020781951</v>
       </c>
       <c r="N6">
-        <v>1.061502670485204</v>
+        <v>1.069811135494526</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.040290121313698</v>
+        <v>1.063615874054341</v>
       </c>
       <c r="D7">
-        <v>1.050024516044396</v>
+        <v>1.062482093024431</v>
       </c>
       <c r="E7">
-        <v>1.049028791437017</v>
+        <v>1.069021949533312</v>
       </c>
       <c r="F7">
-        <v>1.05650545149466</v>
+        <v>1.07990069815479</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05942487773945</v>
+        <v>1.051703662243522</v>
       </c>
       <c r="J7">
-        <v>1.058710749399017</v>
+        <v>1.068017061461732</v>
       </c>
       <c r="K7">
-        <v>1.059551659037821</v>
+        <v>1.064900209625234</v>
       </c>
       <c r="L7">
-        <v>1.058566597759045</v>
+        <v>1.071424509149555</v>
       </c>
       <c r="M7">
-        <v>1.065963790111008</v>
+        <v>1.082277827071343</v>
       </c>
       <c r="N7">
-        <v>1.060214240098984</v>
+        <v>1.069533768192277</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.032483472155726</v>
+        <v>1.06199992016792</v>
       </c>
       <c r="D8">
-        <v>1.04398029153567</v>
+        <v>1.061216879693155</v>
       </c>
       <c r="E8">
-        <v>1.042213021538211</v>
+        <v>1.067547480092631</v>
       </c>
       <c r="F8">
-        <v>1.048946845223103</v>
+        <v>1.078240972028689</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056532243438966</v>
+        <v>1.051190832590105</v>
       </c>
       <c r="J8">
-        <v>1.053189600220713</v>
+        <v>1.066857608381035</v>
       </c>
       <c r="K8">
-        <v>1.054595738657284</v>
+        <v>1.063879742550241</v>
       </c>
       <c r="L8">
-        <v>1.052850010280798</v>
+        <v>1.070193657846308</v>
       </c>
       <c r="M8">
-        <v>1.059502236330797</v>
+        <v>1.080859445864701</v>
       </c>
       <c r="N8">
-        <v>1.054685250255562</v>
+        <v>1.068372668555214</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.017934304660036</v>
+        <v>1.059149838340284</v>
       </c>
       <c r="D9">
-        <v>1.032738066047587</v>
+        <v>1.058984582256707</v>
       </c>
       <c r="E9">
-        <v>1.029558071521906</v>
+        <v>1.064949194798202</v>
       </c>
       <c r="F9">
-        <v>1.034924542977243</v>
+        <v>1.075318253563852</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051065342978536</v>
+        <v>1.050276664360456</v>
       </c>
       <c r="J9">
-        <v>1.042869272477108</v>
+        <v>1.064807829787901</v>
       </c>
       <c r="K9">
-        <v>1.045321418018974</v>
+        <v>1.062073960348975</v>
       </c>
       <c r="L9">
-        <v>1.042189125219427</v>
+        <v>1.068020141091113</v>
       </c>
       <c r="M9">
-        <v>1.047475312779452</v>
+        <v>1.078357688105778</v>
       </c>
       <c r="N9">
-        <v>1.044350266462803</v>
+        <v>1.066319979041365</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.007623476251672</v>
+        <v>1.057247920475428</v>
       </c>
       <c r="D10">
-        <v>1.024791164098474</v>
+        <v>1.05749441444753</v>
       </c>
       <c r="E10">
-        <v>1.020626290876755</v>
+        <v>1.063216859735621</v>
       </c>
       <c r="F10">
-        <v>1.025034756667616</v>
+        <v>1.073370962908103</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047142539560861</v>
+        <v>1.049660120586649</v>
       </c>
       <c r="J10">
-        <v>1.035537859756996</v>
+        <v>1.063436738407451</v>
       </c>
       <c r="K10">
-        <v>1.038726782660843</v>
+        <v>1.060864933801399</v>
       </c>
       <c r="L10">
-        <v>1.034632857039564</v>
+        <v>1.066567953272213</v>
       </c>
       <c r="M10">
-        <v>1.038966248721702</v>
+        <v>1.076688146160929</v>
       </c>
       <c r="N10">
-        <v>1.037008442295703</v>
+        <v>1.064946940553888</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.002994043287196</v>
+        <v>1.056423895471844</v>
       </c>
       <c r="D11">
-        <v>1.021229203071181</v>
+        <v>1.056848672510943</v>
       </c>
       <c r="E11">
-        <v>1.016625811188391</v>
+        <v>1.062466684380158</v>
       </c>
       <c r="F11">
-        <v>1.020606627463157</v>
+        <v>1.07252802115725</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045370494791354</v>
+        <v>1.049391457211945</v>
       </c>
       <c r="J11">
-        <v>1.032242794832447</v>
+        <v>1.062841936616644</v>
       </c>
       <c r="K11">
-        <v>1.035761573203934</v>
+        <v>1.060340169174314</v>
       </c>
       <c r="L11">
-        <v>1.031240855427922</v>
+        <v>1.065938367023043</v>
       </c>
       <c r="M11">
-        <v>1.035150122038381</v>
+        <v>1.075964789649845</v>
       </c>
       <c r="N11">
-        <v>1.033708698001012</v>
+        <v>1.064351294076313</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.001247832160902</v>
+        <v>1.056117740659442</v>
       </c>
       <c r="D12">
-        <v>1.019886674020205</v>
+        <v>1.056608740221044</v>
       </c>
       <c r="E12">
-        <v>1.015118409647849</v>
+        <v>1.06218802452295</v>
       </c>
       <c r="F12">
-        <v>1.018938278664916</v>
+        <v>1.072214950039668</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044700537147427</v>
+        <v>1.049291408005703</v>
       </c>
       <c r="J12">
-        <v>1.030999475216665</v>
+        <v>1.062620832175575</v>
       </c>
       <c r="K12">
-        <v>1.034642543120686</v>
+        <v>1.06014505922632</v>
       </c>
       <c r="L12">
-        <v>1.029961585579815</v>
+        <v>1.065704391804042</v>
       </c>
       <c r="M12">
-        <v>1.03371142813234</v>
+        <v>1.075696035632219</v>
       </c>
       <c r="N12">
-        <v>1.032463612728766</v>
+        <v>1.064129875641578</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.001623637822691</v>
+        <v>1.0561834153559</v>
       </c>
       <c r="D13">
-        <v>1.020175553746169</v>
+        <v>1.056660209928185</v>
       </c>
       <c r="E13">
-        <v>1.015442748012872</v>
+        <v>1.062247798551269</v>
       </c>
       <c r="F13">
-        <v>1.019297238708929</v>
+        <v>1.072282103310723</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044844788768813</v>
+        <v>1.049312880483734</v>
       </c>
       <c r="J13">
-        <v>1.031267070676691</v>
+        <v>1.062668267485651</v>
       </c>
       <c r="K13">
-        <v>1.034883395709802</v>
+        <v>1.060186919548949</v>
       </c>
       <c r="L13">
-        <v>1.030236890063846</v>
+        <v>1.065754585689567</v>
       </c>
       <c r="M13">
-        <v>1.034021017468798</v>
+        <v>1.075753687354887</v>
       </c>
       <c r="N13">
-        <v>1.032731588205039</v>
+        <v>1.064177378315235</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.002850255776651</v>
+        <v>1.056398590170667</v>
       </c>
       <c r="D14">
-        <v>1.021118634072887</v>
+        <v>1.05682884117105</v>
       </c>
       <c r="E14">
-        <v>1.016501655391992</v>
+        <v>1.062443650511468</v>
       </c>
       <c r="F14">
-        <v>1.020469211595664</v>
+        <v>1.072502141900569</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045315359737323</v>
+        <v>1.049383192333986</v>
       </c>
       <c r="J14">
-        <v>1.032140424957945</v>
+        <v>1.062823663503714</v>
       </c>
       <c r="K14">
-        <v>1.035669440243845</v>
+        <v>1.060324045189269</v>
       </c>
       <c r="L14">
-        <v>1.031135512792035</v>
+        <v>1.065919028993266</v>
       </c>
       <c r="M14">
-        <v>1.035031640726816</v>
+        <v>1.07594257574153</v>
       </c>
       <c r="N14">
-        <v>1.033606182749547</v>
+        <v>1.064332995013468</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.003602427007191</v>
+        <v>1.056531156421748</v>
       </c>
       <c r="D15">
-        <v>1.021697077747001</v>
+        <v>1.056932730465866</v>
       </c>
       <c r="E15">
-        <v>1.017151195078793</v>
+        <v>1.06256431981037</v>
       </c>
       <c r="F15">
-        <v>1.021188131069677</v>
+        <v>1.072637719505199</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045603715881018</v>
+        <v>1.049426479880731</v>
       </c>
       <c r="J15">
-        <v>1.032675918131375</v>
+        <v>1.06291938572832</v>
       </c>
       <c r="K15">
-        <v>1.03615137751301</v>
+        <v>1.060408507733279</v>
       </c>
       <c r="L15">
-        <v>1.031686581921635</v>
+        <v>1.06602033213779</v>
       </c>
       <c r="M15">
-        <v>1.035651462591833</v>
+        <v>1.076058947145115</v>
       </c>
       <c r="N15">
-        <v>1.034142436384705</v>
+        <v>1.064428853174612</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.007927088751802</v>
+        <v>1.057302597905048</v>
       </c>
       <c r="D16">
-        <v>1.025024904839841</v>
+        <v>1.05753725977757</v>
       </c>
       <c r="E16">
-        <v>1.020888866004512</v>
+        <v>1.063266644918353</v>
       </c>
       <c r="F16">
-        <v>1.025325428935667</v>
+        <v>1.07342691120628</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047258538132822</v>
+        <v>1.04967791508493</v>
       </c>
       <c r="J16">
-        <v>1.035753896834621</v>
+        <v>1.063476189901338</v>
       </c>
       <c r="K16">
-        <v>1.038921168043346</v>
+        <v>1.060899734278096</v>
       </c>
       <c r="L16">
-        <v>1.034855335824781</v>
+        <v>1.066609720267587</v>
       </c>
       <c r="M16">
-        <v>1.039216619409026</v>
+        <v>1.076736143637303</v>
       </c>
       <c r="N16">
-        <v>1.037224786170759</v>
+        <v>1.064986448073422</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.010594451184962</v>
+        <v>1.05778637172786</v>
       </c>
       <c r="D17">
-        <v>1.027079119146934</v>
+        <v>1.057916332983692</v>
       </c>
       <c r="E17">
-        <v>1.023196817404983</v>
+        <v>1.063707176747681</v>
       </c>
       <c r="F17">
-        <v>1.027880505423403</v>
+        <v>1.073922015091818</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048276423044479</v>
+        <v>1.049835179094037</v>
       </c>
       <c r="J17">
-        <v>1.037651501200632</v>
+        <v>1.063825159966629</v>
       </c>
       <c r="K17">
-        <v>1.040628447062911</v>
+        <v>1.061207532502001</v>
       </c>
       <c r="L17">
-        <v>1.036809990005699</v>
+        <v>1.066979217972176</v>
       </c>
       <c r="M17">
-        <v>1.041416731672641</v>
+        <v>1.077160813528844</v>
       </c>
       <c r="N17">
-        <v>1.039125085352628</v>
+        <v>1.065335913716233</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.012134516375197</v>
+        <v>1.058068502498055</v>
       </c>
       <c r="D18">
-        <v>1.028265736270829</v>
+        <v>1.05813739284677</v>
       </c>
       <c r="E18">
-        <v>1.024530284224902</v>
+        <v>1.063964125576172</v>
       </c>
       <c r="F18">
-        <v>1.029356891025391</v>
+        <v>1.074210824890613</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04886310296511</v>
+        <v>1.049926744965076</v>
       </c>
       <c r="J18">
-        <v>1.038746806587436</v>
+        <v>1.064028601307342</v>
       </c>
       <c r="K18">
-        <v>1.041613773271031</v>
+        <v>1.061386945670837</v>
       </c>
       <c r="L18">
-        <v>1.037938613342968</v>
+        <v>1.067194664657397</v>
       </c>
       <c r="M18">
-        <v>1.042687422126827</v>
+        <v>1.077408474571343</v>
       </c>
       <c r="N18">
-        <v>1.040221946198714</v>
+        <v>1.065539643966985</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.012657019292555</v>
+        <v>1.058164694028521</v>
       </c>
       <c r="D19">
-        <v>1.028668416643923</v>
+        <v>1.058212760597553</v>
       </c>
       <c r="E19">
-        <v>1.024982846387148</v>
+        <v>1.064051737536505</v>
       </c>
       <c r="F19">
-        <v>1.029857981952656</v>
+        <v>1.074309305720813</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049061972745083</v>
+        <v>1.049957938843896</v>
       </c>
       <c r="J19">
-        <v>1.039118357717022</v>
+        <v>1.064097951452457</v>
       </c>
       <c r="K19">
-        <v>1.041947995765152</v>
+        <v>1.061448100559618</v>
       </c>
       <c r="L19">
-        <v>1.038321532349222</v>
+        <v>1.067268113728442</v>
       </c>
       <c r="M19">
-        <v>1.043118599302298</v>
+        <v>1.077492913570889</v>
       </c>
       <c r="N19">
-        <v>1.040594024973522</v>
+        <v>1.065609092597261</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.010309911773867</v>
+        <v>1.057734472187355</v>
       </c>
       <c r="D20">
-        <v>1.02685992722581</v>
+        <v>1.057875666901921</v>
       </c>
       <c r="E20">
-        <v>1.02295052214498</v>
+        <v>1.063659912480069</v>
       </c>
       <c r="F20">
-        <v>1.027607823887564</v>
+        <v>1.073868892657532</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048167946194402</v>
+        <v>1.049818323079366</v>
       </c>
       <c r="J20">
-        <v>1.037449108195816</v>
+        <v>1.063787729861977</v>
       </c>
       <c r="K20">
-        <v>1.040446366209136</v>
+        <v>1.061174521123134</v>
       </c>
       <c r="L20">
-        <v>1.036601471832123</v>
+        <v>1.066939582144398</v>
       </c>
       <c r="M20">
-        <v>1.041181993434867</v>
+        <v>1.077115254799551</v>
       </c>
       <c r="N20">
-        <v>1.03892240492653</v>
+        <v>1.065298430456539</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.002489798607849</v>
+        <v>1.056335228650368</v>
       </c>
       <c r="D21">
-        <v>1.020841468589838</v>
+        <v>1.056779185554622</v>
       </c>
       <c r="E21">
-        <v>1.016190438080043</v>
+        <v>1.062385977318584</v>
       </c>
       <c r="F21">
-        <v>1.020124758726717</v>
+        <v>1.072437345072811</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045177118459955</v>
+        <v>1.049362494311322</v>
       </c>
       <c r="J21">
-        <v>1.031883789944579</v>
+        <v>1.062777907917291</v>
       </c>
       <c r="K21">
-        <v>1.035438465813737</v>
+        <v>1.060283670335199</v>
       </c>
       <c r="L21">
-        <v>1.030871435358657</v>
+        <v>1.065870607834125</v>
       </c>
       <c r="M21">
-        <v>1.03473463523378</v>
+        <v>1.075886954690964</v>
       </c>
       <c r="N21">
-        <v>1.033349183285025</v>
+        <v>1.064287174448863</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9974178166041281</v>
+        <v>1.05545503200859</v>
       </c>
       <c r="D22">
-        <v>1.016944109736015</v>
+        <v>1.056089349661599</v>
       </c>
       <c r="E22">
-        <v>1.011815192763952</v>
+        <v>1.061584937237555</v>
       </c>
       <c r="F22">
-        <v>1.015282702931812</v>
+        <v>1.07153747554689</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043228332193105</v>
+        <v>1.049074417025903</v>
       </c>
       <c r="J22">
-        <v>1.028271764056902</v>
+        <v>1.062142016587604</v>
       </c>
       <c r="K22">
-        <v>1.032187211395933</v>
+        <v>1.059722462853604</v>
       </c>
       <c r="L22">
-        <v>1.027156166695687</v>
+        <v>1.065197812728553</v>
       </c>
       <c r="M22">
-        <v>1.030557366668474</v>
+        <v>1.075114283846183</v>
       </c>
       <c r="N22">
-        <v>1.029732027906283</v>
+        <v>1.063650380080551</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.000121956016653</v>
+        <v>1.05592168323893</v>
       </c>
       <c r="D23">
-        <v>1.019021380453883</v>
+        <v>1.056455086396962</v>
       </c>
       <c r="E23">
-        <v>1.014146962697734</v>
+        <v>1.062009590674473</v>
       </c>
       <c r="F23">
-        <v>1.017863160607184</v>
+        <v>1.072014495091953</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0442681526806</v>
+        <v>1.049227272794684</v>
       </c>
       <c r="J23">
-        <v>1.030197729219883</v>
+        <v>1.062479207741025</v>
       </c>
       <c r="K23">
-        <v>1.03392089777728</v>
+        <v>1.06002007377405</v>
       </c>
       <c r="L23">
-        <v>1.029136834941361</v>
+        <v>1.065554539999741</v>
       </c>
       <c r="M23">
-        <v>1.032784045163889</v>
+        <v>1.075523928907726</v>
       </c>
       <c r="N23">
-        <v>1.031660728160706</v>
+        <v>1.063988050084086</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.010438531456863</v>
+        <v>1.057757923498816</v>
       </c>
       <c r="D24">
-        <v>1.02695900628332</v>
+        <v>1.057894042299513</v>
       </c>
       <c r="E24">
-        <v>1.023061851578222</v>
+        <v>1.063681269186538</v>
       </c>
       <c r="F24">
-        <v>1.027731079916277</v>
+        <v>1.073892896324609</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048216983901935</v>
+        <v>1.04982594009225</v>
       </c>
       <c r="J24">
-        <v>1.037540596435199</v>
+        <v>1.063804643245736</v>
       </c>
       <c r="K24">
-        <v>1.040528673075622</v>
+        <v>1.061189437916122</v>
       </c>
       <c r="L24">
-        <v>1.036695727642049</v>
+        <v>1.066957492100877</v>
       </c>
       <c r="M24">
-        <v>1.041288100365244</v>
+        <v>1.077135840957218</v>
       </c>
       <c r="N24">
-        <v>1.039014023089707</v>
+        <v>1.065315367859243</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.02179720753874</v>
+        <v>1.059886971026548</v>
       </c>
       <c r="D25">
-        <v>1.035719860967741</v>
+        <v>1.059562026872656</v>
       </c>
       <c r="E25">
-        <v>1.032912103593119</v>
+        <v>1.065620932754384</v>
       </c>
       <c r="F25">
-        <v>1.038639687690672</v>
+        <v>1.076073628817231</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052525372771253</v>
+        <v>1.050514246887133</v>
       </c>
       <c r="J25">
-        <v>1.045612635027353</v>
+        <v>1.065338546343833</v>
       </c>
       <c r="K25">
-        <v>1.047787869937406</v>
+        <v>1.062541704783806</v>
       </c>
       <c r="L25">
-        <v>1.045020115826863</v>
+        <v>1.068582600990791</v>
       </c>
       <c r="M25">
-        <v>1.050666386607149</v>
+        <v>1.079004745549322</v>
       </c>
       <c r="N25">
-        <v>1.047097524902538</v>
+        <v>1.06685144927568</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_203/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_203/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.061583738586743</v>
+        <v>1.030422560122526</v>
       </c>
       <c r="D2">
-        <v>1.060890972402392</v>
+        <v>1.04238595795359</v>
       </c>
       <c r="E2">
-        <v>1.067167889103512</v>
+        <v>1.040416700324603</v>
       </c>
       <c r="F2">
-        <v>1.07781382575214</v>
+        <v>1.046955568690989</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051058098285538</v>
+        <v>1.055763472653461</v>
       </c>
       <c r="J2">
-        <v>1.066558667851675</v>
+        <v>1.05172991096984</v>
       </c>
       <c r="K2">
-        <v>1.063616520042916</v>
+        <v>1.053284759243611</v>
       </c>
       <c r="L2">
-        <v>1.069876477279835</v>
+        <v>1.051340281277046</v>
       </c>
       <c r="M2">
-        <v>1.080494137962325</v>
+        <v>1.057797316775401</v>
       </c>
       <c r="N2">
-        <v>1.068073303496013</v>
+        <v>1.053223488078524</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.06281500893619</v>
+        <v>1.036459478833751</v>
       </c>
       <c r="D3">
-        <v>1.061855099938356</v>
+        <v>1.047057731171286</v>
       </c>
       <c r="E3">
-        <v>1.068291085950372</v>
+        <v>1.045682098706799</v>
       </c>
       <c r="F3">
-        <v>1.079077899173472</v>
+        <v>1.052793362838435</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051450017423072</v>
+        <v>1.058009487721214</v>
       </c>
       <c r="J3">
-        <v>1.067442694377056</v>
+        <v>1.05600326617968</v>
       </c>
       <c r="K3">
-        <v>1.064394784157539</v>
+        <v>1.057121925509312</v>
       </c>
       <c r="L3">
-        <v>1.070814641586134</v>
+        <v>1.055762020520303</v>
       </c>
       <c r="M3">
-        <v>1.081574887146536</v>
+        <v>1.062792527977426</v>
       </c>
       <c r="N3">
-        <v>1.068958585440459</v>
+        <v>1.057502911942922</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.063611401106162</v>
+        <v>1.040268932158794</v>
       </c>
       <c r="D4">
-        <v>1.062478591432483</v>
+        <v>1.050008100531808</v>
       </c>
       <c r="E4">
-        <v>1.069017866904393</v>
+        <v>1.049010267132662</v>
       </c>
       <c r="F4">
-        <v>1.07989610137531</v>
+        <v>1.056484901032147</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051702248441203</v>
+        <v>1.05941707080453</v>
       </c>
       <c r="J4">
-        <v>1.068013854960822</v>
+        <v>1.058695782563282</v>
       </c>
       <c r="K4">
-        <v>1.064897388507492</v>
+        <v>1.059538230806719</v>
       </c>
       <c r="L4">
-        <v>1.071421103734041</v>
+        <v>1.058551087301346</v>
       </c>
       <c r="M4">
-        <v>1.082273901098576</v>
+        <v>1.065946245080293</v>
       </c>
       <c r="N4">
-        <v>1.069530557137768</v>
+        <v>1.060199252008625</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.063946129449491</v>
+        <v>1.041848296320386</v>
       </c>
       <c r="D5">
-        <v>1.06274062125233</v>
+        <v>1.051231794821196</v>
       </c>
       <c r="E5">
-        <v>1.069323406403561</v>
+        <v>1.050391374657111</v>
       </c>
       <c r="F5">
-        <v>1.080240138055887</v>
+        <v>1.058017188142966</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051807959756388</v>
+        <v>1.059998268234047</v>
       </c>
       <c r="J5">
-        <v>1.068253765417447</v>
+        <v>1.059811051253297</v>
       </c>
       <c r="K5">
-        <v>1.065108448735447</v>
+        <v>1.060538746400498</v>
       </c>
       <c r="L5">
-        <v>1.071675919784111</v>
+        <v>1.05970708010761</v>
       </c>
       <c r="M5">
-        <v>1.082567695526514</v>
+        <v>1.067254083712634</v>
       </c>
       <c r="N5">
-        <v>1.06977080829476</v>
+        <v>1.061316104508103</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.064002327480994</v>
+        <v>1.04211221013035</v>
       </c>
       <c r="D6">
-        <v>1.062784612198238</v>
+        <v>1.051436303137873</v>
       </c>
       <c r="E6">
-        <v>1.069374707916324</v>
+        <v>1.050622233209528</v>
       </c>
       <c r="F6">
-        <v>1.080297907158955</v>
+        <v>1.058273340397273</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051825690017317</v>
+        <v>1.06009524628742</v>
       </c>
       <c r="J6">
-        <v>1.068294035429178</v>
+        <v>1.059997352661029</v>
       </c>
       <c r="K6">
-        <v>1.065143872948008</v>
+        <v>1.060705858188747</v>
       </c>
       <c r="L6">
-        <v>1.071718696310996</v>
+        <v>1.059900227323225</v>
       </c>
       <c r="M6">
-        <v>1.082617020781951</v>
+        <v>1.06747264366448</v>
       </c>
       <c r="N6">
-        <v>1.069811135494526</v>
+        <v>1.061502670485203</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.063615874054341</v>
+        <v>1.040290121313698</v>
       </c>
       <c r="D7">
-        <v>1.062482093024431</v>
+        <v>1.050024516044395</v>
       </c>
       <c r="E7">
-        <v>1.069021949533312</v>
+        <v>1.049028791437017</v>
       </c>
       <c r="F7">
-        <v>1.07990069815479</v>
+        <v>1.05650545149466</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051703662243522</v>
+        <v>1.05942487773945</v>
       </c>
       <c r="J7">
-        <v>1.068017061461732</v>
+        <v>1.058710749399017</v>
       </c>
       <c r="K7">
-        <v>1.064900209625234</v>
+        <v>1.05955165903782</v>
       </c>
       <c r="L7">
-        <v>1.071424509149555</v>
+        <v>1.058566597759045</v>
       </c>
       <c r="M7">
-        <v>1.082277827071343</v>
+        <v>1.065963790111008</v>
       </c>
       <c r="N7">
-        <v>1.069533768192277</v>
+        <v>1.060214240098984</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.06199992016792</v>
+        <v>1.032483472155726</v>
       </c>
       <c r="D8">
-        <v>1.061216879693155</v>
+        <v>1.043980291535669</v>
       </c>
       <c r="E8">
-        <v>1.067547480092631</v>
+        <v>1.042213021538211</v>
       </c>
       <c r="F8">
-        <v>1.078240972028689</v>
+        <v>1.048946845223103</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051190832590105</v>
+        <v>1.056532243438966</v>
       </c>
       <c r="J8">
-        <v>1.066857608381035</v>
+        <v>1.053189600220713</v>
       </c>
       <c r="K8">
-        <v>1.063879742550241</v>
+        <v>1.054595738657284</v>
       </c>
       <c r="L8">
-        <v>1.070193657846308</v>
+        <v>1.052850010280798</v>
       </c>
       <c r="M8">
-        <v>1.080859445864701</v>
+        <v>1.059502236330797</v>
       </c>
       <c r="N8">
-        <v>1.068372668555214</v>
+        <v>1.054685250255562</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.059149838340284</v>
+        <v>1.017934304660037</v>
       </c>
       <c r="D9">
-        <v>1.058984582256707</v>
+        <v>1.032738066047589</v>
       </c>
       <c r="E9">
-        <v>1.064949194798202</v>
+        <v>1.029558071521907</v>
       </c>
       <c r="F9">
-        <v>1.075318253563852</v>
+        <v>1.034924542977243</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050276664360456</v>
+        <v>1.051065342978537</v>
       </c>
       <c r="J9">
-        <v>1.064807829787901</v>
+        <v>1.04286927247711</v>
       </c>
       <c r="K9">
-        <v>1.062073960348975</v>
+        <v>1.045321418018975</v>
       </c>
       <c r="L9">
-        <v>1.068020141091113</v>
+        <v>1.042189125219428</v>
       </c>
       <c r="M9">
-        <v>1.078357688105778</v>
+        <v>1.047475312779452</v>
       </c>
       <c r="N9">
-        <v>1.066319979041365</v>
+        <v>1.044350266462805</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.057247920475428</v>
+        <v>1.007623476251674</v>
       </c>
       <c r="D10">
-        <v>1.05749441444753</v>
+        <v>1.024791164098476</v>
       </c>
       <c r="E10">
-        <v>1.063216859735621</v>
+        <v>1.020626290876756</v>
       </c>
       <c r="F10">
-        <v>1.073370962908103</v>
+        <v>1.025034756667618</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049660120586649</v>
+        <v>1.047142539560862</v>
       </c>
       <c r="J10">
-        <v>1.063436738407451</v>
+        <v>1.035537859756998</v>
       </c>
       <c r="K10">
-        <v>1.060864933801399</v>
+        <v>1.038726782660845</v>
       </c>
       <c r="L10">
-        <v>1.066567953272213</v>
+        <v>1.034632857039566</v>
       </c>
       <c r="M10">
-        <v>1.076688146160929</v>
+        <v>1.038966248721704</v>
       </c>
       <c r="N10">
-        <v>1.064946940553888</v>
+        <v>1.037008442295705</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.056423895471844</v>
+        <v>1.002994043287197</v>
       </c>
       <c r="D11">
-        <v>1.056848672510943</v>
+        <v>1.021229203071182</v>
       </c>
       <c r="E11">
-        <v>1.062466684380158</v>
+        <v>1.016625811188392</v>
       </c>
       <c r="F11">
-        <v>1.07252802115725</v>
+        <v>1.020606627463158</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049391457211945</v>
+        <v>1.045370494791354</v>
       </c>
       <c r="J11">
-        <v>1.062841936616644</v>
+        <v>1.032242794832448</v>
       </c>
       <c r="K11">
-        <v>1.060340169174314</v>
+        <v>1.035761573203935</v>
       </c>
       <c r="L11">
-        <v>1.065938367023043</v>
+        <v>1.031240855427923</v>
       </c>
       <c r="M11">
-        <v>1.075964789649845</v>
+        <v>1.035150122038382</v>
       </c>
       <c r="N11">
-        <v>1.064351294076313</v>
+        <v>1.033708698001013</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.056117740659442</v>
+        <v>1.001247832160901</v>
       </c>
       <c r="D12">
-        <v>1.056608740221044</v>
+        <v>1.019886674020204</v>
       </c>
       <c r="E12">
-        <v>1.06218802452295</v>
+        <v>1.015118409647848</v>
       </c>
       <c r="F12">
-        <v>1.072214950039668</v>
+        <v>1.018938278664915</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049291408005703</v>
+        <v>1.044700537147427</v>
       </c>
       <c r="J12">
-        <v>1.062620832175575</v>
+        <v>1.030999475216665</v>
       </c>
       <c r="K12">
-        <v>1.06014505922632</v>
+        <v>1.034642543120686</v>
       </c>
       <c r="L12">
-        <v>1.065704391804042</v>
+        <v>1.029961585579815</v>
       </c>
       <c r="M12">
-        <v>1.075696035632219</v>
+        <v>1.03371142813234</v>
       </c>
       <c r="N12">
-        <v>1.064129875641578</v>
+        <v>1.032463612728765</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.0561834153559</v>
+        <v>1.00162363782269</v>
       </c>
       <c r="D13">
-        <v>1.056660209928185</v>
+        <v>1.020175553746169</v>
       </c>
       <c r="E13">
-        <v>1.062247798551269</v>
+        <v>1.015442748012871</v>
       </c>
       <c r="F13">
-        <v>1.072282103310723</v>
+        <v>1.019297238708927</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049312880483734</v>
+        <v>1.044844788768813</v>
       </c>
       <c r="J13">
-        <v>1.062668267485651</v>
+        <v>1.031267070676691</v>
       </c>
       <c r="K13">
-        <v>1.060186919548949</v>
+        <v>1.034883395709802</v>
       </c>
       <c r="L13">
-        <v>1.065754585689567</v>
+        <v>1.030236890063845</v>
       </c>
       <c r="M13">
-        <v>1.075753687354887</v>
+        <v>1.034021017468797</v>
       </c>
       <c r="N13">
-        <v>1.064177378315235</v>
+        <v>1.032731588205038</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.056398590170667</v>
+        <v>1.002850255776651</v>
       </c>
       <c r="D14">
-        <v>1.05682884117105</v>
+        <v>1.021118634072887</v>
       </c>
       <c r="E14">
-        <v>1.062443650511468</v>
+        <v>1.016501655391992</v>
       </c>
       <c r="F14">
-        <v>1.072502141900569</v>
+        <v>1.020469211595664</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049383192333986</v>
+        <v>1.045315359737324</v>
       </c>
       <c r="J14">
-        <v>1.062823663503714</v>
+        <v>1.032140424957945</v>
       </c>
       <c r="K14">
-        <v>1.060324045189269</v>
+        <v>1.035669440243845</v>
       </c>
       <c r="L14">
-        <v>1.065919028993266</v>
+        <v>1.031135512792035</v>
       </c>
       <c r="M14">
-        <v>1.07594257574153</v>
+        <v>1.035031640726816</v>
       </c>
       <c r="N14">
-        <v>1.064332995013468</v>
+        <v>1.033606182749547</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.056531156421748</v>
+        <v>1.003602427007191</v>
       </c>
       <c r="D15">
-        <v>1.056932730465866</v>
+        <v>1.021697077747001</v>
       </c>
       <c r="E15">
-        <v>1.06256431981037</v>
+        <v>1.017151195078793</v>
       </c>
       <c r="F15">
-        <v>1.072637719505199</v>
+        <v>1.021188131069676</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049426479880731</v>
+        <v>1.045603715881018</v>
       </c>
       <c r="J15">
-        <v>1.06291938572832</v>
+        <v>1.032675918131375</v>
       </c>
       <c r="K15">
-        <v>1.060408507733279</v>
+        <v>1.03615137751301</v>
       </c>
       <c r="L15">
-        <v>1.06602033213779</v>
+        <v>1.031686581921635</v>
       </c>
       <c r="M15">
-        <v>1.076058947145115</v>
+        <v>1.035651462591832</v>
       </c>
       <c r="N15">
-        <v>1.064428853174612</v>
+        <v>1.034142436384705</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.057302597905048</v>
+        <v>1.007927088751802</v>
       </c>
       <c r="D16">
-        <v>1.05753725977757</v>
+        <v>1.025024904839841</v>
       </c>
       <c r="E16">
-        <v>1.063266644918353</v>
+        <v>1.020888866004513</v>
       </c>
       <c r="F16">
-        <v>1.07342691120628</v>
+        <v>1.025325428935667</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04967791508493</v>
+        <v>1.047258538132823</v>
       </c>
       <c r="J16">
-        <v>1.063476189901338</v>
+        <v>1.035753896834621</v>
       </c>
       <c r="K16">
-        <v>1.060899734278096</v>
+        <v>1.038921168043347</v>
       </c>
       <c r="L16">
-        <v>1.066609720267587</v>
+        <v>1.034855335824781</v>
       </c>
       <c r="M16">
-        <v>1.076736143637303</v>
+        <v>1.039216619409026</v>
       </c>
       <c r="N16">
-        <v>1.064986448073422</v>
+        <v>1.037224786170759</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.05778637172786</v>
+        <v>1.010594451184962</v>
       </c>
       <c r="D17">
-        <v>1.057916332983692</v>
+        <v>1.027079119146934</v>
       </c>
       <c r="E17">
-        <v>1.063707176747681</v>
+        <v>1.023196817404983</v>
       </c>
       <c r="F17">
-        <v>1.073922015091818</v>
+        <v>1.027880505423404</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049835179094037</v>
+        <v>1.048276423044479</v>
       </c>
       <c r="J17">
-        <v>1.063825159966629</v>
+        <v>1.037651501200632</v>
       </c>
       <c r="K17">
-        <v>1.061207532502001</v>
+        <v>1.040628447062911</v>
       </c>
       <c r="L17">
-        <v>1.066979217972176</v>
+        <v>1.0368099900057</v>
       </c>
       <c r="M17">
-        <v>1.077160813528844</v>
+        <v>1.041416731672642</v>
       </c>
       <c r="N17">
-        <v>1.065335913716233</v>
+        <v>1.039125085352628</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.058068502498055</v>
+        <v>1.012134516375198</v>
       </c>
       <c r="D18">
-        <v>1.05813739284677</v>
+        <v>1.02826573627083</v>
       </c>
       <c r="E18">
-        <v>1.063964125576172</v>
+        <v>1.024530284224903</v>
       </c>
       <c r="F18">
-        <v>1.074210824890613</v>
+        <v>1.029356891025392</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049926744965076</v>
+        <v>1.04886310296511</v>
       </c>
       <c r="J18">
-        <v>1.064028601307342</v>
+        <v>1.038746806587437</v>
       </c>
       <c r="K18">
-        <v>1.061386945670837</v>
+        <v>1.041613773271032</v>
       </c>
       <c r="L18">
-        <v>1.067194664657397</v>
+        <v>1.037938613342968</v>
       </c>
       <c r="M18">
-        <v>1.077408474571343</v>
+        <v>1.042687422126829</v>
       </c>
       <c r="N18">
-        <v>1.065539643966985</v>
+        <v>1.040221946198715</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.058164694028521</v>
+        <v>1.012657019292555</v>
       </c>
       <c r="D19">
-        <v>1.058212760597553</v>
+        <v>1.028668416643923</v>
       </c>
       <c r="E19">
-        <v>1.064051737536505</v>
+        <v>1.024982846387148</v>
       </c>
       <c r="F19">
-        <v>1.074309305720813</v>
+        <v>1.029857981952656</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049957938843896</v>
+        <v>1.049061972745084</v>
       </c>
       <c r="J19">
-        <v>1.064097951452457</v>
+        <v>1.039118357717023</v>
       </c>
       <c r="K19">
-        <v>1.061448100559618</v>
+        <v>1.041947995765152</v>
       </c>
       <c r="L19">
-        <v>1.067268113728442</v>
+        <v>1.038321532349222</v>
       </c>
       <c r="M19">
-        <v>1.077492913570889</v>
+        <v>1.043118599302298</v>
       </c>
       <c r="N19">
-        <v>1.065609092597261</v>
+        <v>1.040594024973522</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.057734472187355</v>
+        <v>1.010309911773865</v>
       </c>
       <c r="D20">
-        <v>1.057875666901921</v>
+        <v>1.026859927225808</v>
       </c>
       <c r="E20">
-        <v>1.063659912480069</v>
+        <v>1.022950522144979</v>
       </c>
       <c r="F20">
-        <v>1.073868892657532</v>
+        <v>1.027607823887562</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049818323079366</v>
+        <v>1.048167946194402</v>
       </c>
       <c r="J20">
-        <v>1.063787729861977</v>
+        <v>1.037449108195815</v>
       </c>
       <c r="K20">
-        <v>1.061174521123134</v>
+        <v>1.040446366209135</v>
       </c>
       <c r="L20">
-        <v>1.066939582144398</v>
+        <v>1.036601471832121</v>
       </c>
       <c r="M20">
-        <v>1.077115254799551</v>
+        <v>1.041181993434866</v>
       </c>
       <c r="N20">
-        <v>1.065298430456539</v>
+        <v>1.038922404926529</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.056335228650368</v>
+        <v>1.002489798607848</v>
       </c>
       <c r="D21">
-        <v>1.056779185554622</v>
+        <v>1.020841468589837</v>
       </c>
       <c r="E21">
-        <v>1.062385977318584</v>
+        <v>1.016190438080042</v>
       </c>
       <c r="F21">
-        <v>1.072437345072811</v>
+        <v>1.020124758726716</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049362494311322</v>
+        <v>1.045177118459954</v>
       </c>
       <c r="J21">
-        <v>1.062777907917291</v>
+        <v>1.031883789944578</v>
       </c>
       <c r="K21">
-        <v>1.060283670335199</v>
+        <v>1.035438465813736</v>
       </c>
       <c r="L21">
-        <v>1.065870607834125</v>
+        <v>1.030871435358657</v>
       </c>
       <c r="M21">
-        <v>1.075886954690964</v>
+        <v>1.03473463523378</v>
       </c>
       <c r="N21">
-        <v>1.064287174448863</v>
+        <v>1.033349183285024</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.05545503200859</v>
+        <v>0.9974178166041273</v>
       </c>
       <c r="D22">
-        <v>1.056089349661599</v>
+        <v>1.016944109736013</v>
       </c>
       <c r="E22">
-        <v>1.061584937237555</v>
+        <v>1.011815192763951</v>
       </c>
       <c r="F22">
-        <v>1.07153747554689</v>
+        <v>1.015282702931811</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049074417025903</v>
+        <v>1.043228332193105</v>
       </c>
       <c r="J22">
-        <v>1.062142016587604</v>
+        <v>1.028271764056902</v>
       </c>
       <c r="K22">
-        <v>1.059722462853604</v>
+        <v>1.032187211395931</v>
       </c>
       <c r="L22">
-        <v>1.065197812728553</v>
+        <v>1.027156166695686</v>
       </c>
       <c r="M22">
-        <v>1.075114283846183</v>
+        <v>1.030557366668474</v>
       </c>
       <c r="N22">
-        <v>1.063650380080551</v>
+        <v>1.029732027906282</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.05592168323893</v>
+        <v>1.000121956016652</v>
       </c>
       <c r="D23">
-        <v>1.056455086396962</v>
+        <v>1.019021380453883</v>
       </c>
       <c r="E23">
-        <v>1.062009590674473</v>
+        <v>1.014146962697733</v>
       </c>
       <c r="F23">
-        <v>1.072014495091953</v>
+        <v>1.017863160607182</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049227272794684</v>
+        <v>1.044268152680599</v>
       </c>
       <c r="J23">
-        <v>1.062479207741025</v>
+        <v>1.030197729219882</v>
       </c>
       <c r="K23">
-        <v>1.06002007377405</v>
+        <v>1.03392089777728</v>
       </c>
       <c r="L23">
-        <v>1.065554539999741</v>
+        <v>1.02913683494136</v>
       </c>
       <c r="M23">
-        <v>1.075523928907726</v>
+        <v>1.032784045163888</v>
       </c>
       <c r="N23">
-        <v>1.063988050084086</v>
+        <v>1.031660728160705</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.057757923498816</v>
+        <v>1.010438531456863</v>
       </c>
       <c r="D24">
-        <v>1.057894042299513</v>
+        <v>1.02695900628332</v>
       </c>
       <c r="E24">
-        <v>1.063681269186538</v>
+        <v>1.023061851578222</v>
       </c>
       <c r="F24">
-        <v>1.073892896324609</v>
+        <v>1.027731079916277</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04982594009225</v>
+        <v>1.048216983901935</v>
       </c>
       <c r="J24">
-        <v>1.063804643245736</v>
+        <v>1.037540596435199</v>
       </c>
       <c r="K24">
-        <v>1.061189437916122</v>
+        <v>1.040528673075622</v>
       </c>
       <c r="L24">
-        <v>1.066957492100877</v>
+        <v>1.036695727642049</v>
       </c>
       <c r="M24">
-        <v>1.077135840957218</v>
+        <v>1.041288100365244</v>
       </c>
       <c r="N24">
-        <v>1.065315367859243</v>
+        <v>1.039014023089707</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.059886971026548</v>
+        <v>1.02179720753874</v>
       </c>
       <c r="D25">
-        <v>1.059562026872656</v>
+        <v>1.03571986096774</v>
       </c>
       <c r="E25">
-        <v>1.065620932754384</v>
+        <v>1.03291210359312</v>
       </c>
       <c r="F25">
-        <v>1.076073628817231</v>
+        <v>1.038639687690673</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050514246887133</v>
+        <v>1.052525372771253</v>
       </c>
       <c r="J25">
-        <v>1.065338546343833</v>
+        <v>1.045612635027353</v>
       </c>
       <c r="K25">
-        <v>1.062541704783806</v>
+        <v>1.047787869937406</v>
       </c>
       <c r="L25">
-        <v>1.068582600990791</v>
+        <v>1.045020115826863</v>
       </c>
       <c r="M25">
-        <v>1.079004745549322</v>
+        <v>1.050666386607149</v>
       </c>
       <c r="N25">
-        <v>1.06685144927568</v>
+        <v>1.047097524902538</v>
       </c>
     </row>
   </sheetData>
